--- a/SDiganta-Ass1.xlsx
+++ b/SDiganta-Ass1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saqline Diganta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E2426-4E61-4EA9-AB72-D613F9240C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481FDAF-6DBA-419D-BF2B-2348B66B2C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B645894C-9330-4E30-97CE-C2F508CE48D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Employees</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Car Entry</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +178,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,13 +221,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,7 +918,7 @@
   <dimension ref="H10:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,6 +997,9 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="O13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1102,6 +1125,9 @@
       </c>
       <c r="K22" s="4">
         <v>10</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>23</v>
